--- a/aichan/504119217983422603_2021-03-20_20-00-02.xlsx
+++ b/aichan/504119217983422603_2021-03-20_20-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -544,10 +560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-09 09:29:47</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44325.39568287037</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -607,10 +621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:39:31</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44315.6941087963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -678,10 +690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-22 20:30:09</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44308.85427083333</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -758,10 +768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:06:41</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44306.5046412037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -829,10 +837,8 @@
           <t>4435977154</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-19 10:56:57</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44305.45621527778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:28:23</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44305.01971064815</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -986,10 +990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:26:37</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44302.31015046296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1065,10 +1067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-15 17:14:17</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44301.71825231481</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1145,10 +1145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-06 12:21:43</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44292.51508101852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1224,10 +1222,8 @@
           <t>4372176543</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-06 06:00:21</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44292.25024305555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1303,10 +1299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-04 14:07:13</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44290.58834490741</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1367,10 +1361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:20:16</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44288.55574074074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1434,10 +1426,8 @@
           <t>4292582938</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:20:33</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44279.8059375</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1506,10 +1496,8 @@
           <t>4310582738</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:58:48</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44279.79083333333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1578,10 +1566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-24 15:55:36</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44279.66361111111</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1645,10 +1631,8 @@
           <t>4291736034</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-22 22:00:55</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44277.91730324074</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1716,10 +1700,8 @@
           <t>4291736034</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-22 20:36:57</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44277.85899305555</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1779,10 +1761,8 @@
           <t>4291263166</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-21 23:18:13</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44276.97098379629</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1860,10 +1840,8 @@
           <t>4291263166</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-21 21:23:04</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44276.89101851852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1939,10 +1917,8 @@
           <t>4291213211</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-21 21:13:25</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44276.88431712963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2018,10 +1994,8 @@
           <t>4297787584</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-21 18:28:48</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44276.77</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2093,10 +2067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-21 14:53:03</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44276.62017361111</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2176,10 +2148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-21 12:06:14</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44276.5043287037</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2258,10 +2228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-21 10:50:31</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44276.45174768518</v>
       </c>
       <c r="I25" t="n">
         <v>6</v>
@@ -2329,10 +2297,8 @@
           <t>4291320876</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-21 08:41:57</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44276.36246527778</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2404,10 +2370,8 @@
           <t>4291550206</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-21 01:26:42</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44276.06020833334</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2479,10 +2443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-21 01:21:55</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44276.05688657407</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2542,10 +2504,8 @@
           <t>4294673887</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-21 00:57:58</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44276.04025462963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2613,10 +2573,8 @@
           <t>4294546715</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-21 00:29:01</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44276.02015046297</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2684,10 +2642,8 @@
           <t>4294546715</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-21 00:27:31</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44276.0191087963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2755,10 +2711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:57:27</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44275.9565625</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2822,10 +2776,8 @@
           <t>4294056641</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:57:00</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44275.95625</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2901,10 +2853,8 @@
           <t>4294036110</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:53:55</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44275.95410879629</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2981,10 +2931,8 @@
           <t>4291736034</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-20 22:53:07</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44275.95355324074</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3054,10 +3002,8 @@
           <t>4291555047</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:57:48</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44275.91513888889</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3133,10 +3079,8 @@
           <t>4291561062</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:37:56</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44275.9013425926</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3212,10 +3156,8 @@
           <t>4290941316</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:33:00</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44275.89791666667</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3287,10 +3229,8 @@
           <t>4291174915</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:29:43</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44275.89563657407</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3358,10 +3298,8 @@
           <t>4290941316</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:27:40</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44275.89421296296</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3430,10 +3368,8 @@
           <t>4291320876</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:21:11</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44275.88971064815</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3505,10 +3441,8 @@
           <t>4293482234</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:16:22</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44275.88636574074</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3584,10 +3518,8 @@
           <t>4291320876</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:01:09</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44275.87579861111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3655,10 +3587,8 @@
           <t>4291320876</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:00:37</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44275.87542824074</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3726,10 +3656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:58:00</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44275.87361111111</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3797,10 +3725,8 @@
           <t>4291174915</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:53:37</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44275.87056712963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3868,10 +3794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:31:05</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44275.85491898148</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3943,10 +3867,8 @@
           <t>4290941316</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:28:29</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44275.85311342592</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4018,10 +3940,8 @@
           <t>4293186388</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:18:39</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44275.84628472223</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4097,10 +4017,8 @@
           <t>4290941316</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:16:55</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44275.84508101852</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4168,10 +4086,8 @@
           <t>4292707269</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:00:38</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44275.83377314815</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4239,10 +4155,8 @@
           <t>4292707269</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:00:27</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44275.83364583334</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -4318,10 +4232,8 @@
           <t>4290941316</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:00:03</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44275.83336805556</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4393,10 +4305,8 @@
           <t>4292707269</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:57:02</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44275.83127314815</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4464,10 +4374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:53:27</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44275.82878472222</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4543,10 +4451,8 @@
           <t>4292707269</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:39:58</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44275.8194212963</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -4622,10 +4528,8 @@
           <t>4292915557</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:26:00</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44275.80972222222</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4697,10 +4601,8 @@
           <t>4291888781</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:21:18</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44275.80645833333</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4768,10 +4670,8 @@
           <t>4292513187</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:10:10</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44275.79872685186</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4835,10 +4735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:04:53</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44275.79505787037</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4906,10 +4804,8 @@
           <t>4292789265</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:03:46</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44275.79428240741</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4977,10 +4873,8 @@
           <t>4292753015</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-20 19:02:24</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44275.79333333333</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5048,10 +4942,8 @@
           <t>4292395899</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:58:35</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44275.79068287037</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5123,10 +5015,8 @@
           <t>4292753015</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:55:55</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44275.78883101852</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5202,10 +5092,8 @@
           <t>4292747277</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:55:16</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44275.78837962963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5277,10 +5165,8 @@
           <t>4292742395</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:54:51</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44275.78809027778</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5352,10 +5238,8 @@
           <t>4292090812</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:52:42</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44275.78659722222</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5427,10 +5311,8 @@
           <t>4292726927</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:52:01</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44275.78612268518</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5502,10 +5384,8 @@
           <t>4292648337</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:48:22</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44275.78358796296</v>
       </c>
       <c r="I69" t="n">
         <v>5</v>
@@ -5581,10 +5461,8 @@
           <t>4292707269</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:47:07</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44275.78271990741</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5652,10 +5530,8 @@
           <t>4291216054</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:38:53</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44275.77700231481</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5727,10 +5603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:38:18</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44275.77659722222</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5805,10 +5679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:37:09</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44275.77579861111</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
@@ -5876,10 +5748,8 @@
           <t>4292650548</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:37:06</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44275.77576388889</v>
       </c>
       <c r="I74" t="n">
         <v>4</v>
@@ -5955,10 +5825,8 @@
           <t>4292090812</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:36:39</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44275.77545138889</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6022,10 +5890,8 @@
           <t>4292648337</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:36:29</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44275.77533564815</v>
       </c>
       <c r="I76" t="n">
         <v>7</v>
@@ -6101,10 +5967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:34:48</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44275.77416666667</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6180,10 +6044,8 @@
           <t>4292627192</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:32:46</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44275.77275462963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6243,10 +6105,8 @@
           <t>4291216054</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:31:45</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44275.77204861111</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6318,10 +6178,8 @@
           <t>4291888781</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:31:07</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44275.7716087963</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6389,10 +6247,8 @@
           <t>4292353926</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:30:41</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44275.77130787037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6464,10 +6320,8 @@
           <t>4291216054</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:30:11</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44275.77096064815</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6535,10 +6389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:26:52</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44275.76865740741</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6602,10 +6454,8 @@
           <t>4292517446</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:24:50</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44275.76724537037</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6681,10 +6531,8 @@
           <t>4292582938</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:24:16</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44275.76685185185</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6752,10 +6600,8 @@
           <t>4292090812</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:23:45</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44275.76649305555</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6826,10 +6672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:20:13</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44275.76403935185</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6897,10 +6741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:19:05</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44275.76325231481</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6972,10 +6814,8 @@
           <t>4292517446</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:11:03</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44275.75767361111</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7047,10 +6887,8 @@
           <t>4292427419</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:39</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44275.75739583333</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7114,10 +6952,8 @@
           <t>4292513187</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:10:37</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44275.75737268518</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7193,10 +7029,8 @@
           <t>4291555047</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:08:24</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44275.75583333334</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7264,10 +7098,8 @@
           <t>4292500155</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:06:48</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44275.75472222222</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7336,10 +7168,8 @@
           <t>4292458214</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:00:07</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44275.75008101852</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7416,10 +7246,8 @@
           <t>4292083228</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:59:18</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44275.74951388889</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7487,10 +7315,8 @@
           <t>4292446225</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:57:14</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44275.74807870371</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7559,10 +7385,8 @@
           <t>4292083228</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:57:04</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44275.74796296296</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7638,10 +7462,8 @@
           <t>4291899323</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:56:16</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44275.74740740741</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7705,10 +7527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:53:55</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44275.74577546296</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7776,10 +7596,8 @@
           <t>4292427419</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:53:30</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44275.74548611111</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7848,10 +7666,8 @@
           <t>4292415612</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:53:02</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44275.74516203703</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7920,10 +7736,8 @@
           <t>4292415612</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:50:53</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44275.74366898148</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7987,10 +7801,8 @@
           <t>4291555047</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:50:42</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44275.74354166666</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8066,10 +7878,8 @@
           <t>4292312312</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:50:41</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44275.74353009259</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8133,10 +7943,8 @@
           <t>4292312312</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:49:55</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44275.74299768519</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8212,10 +8020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:49:52</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44275.74296296296</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8287,10 +8093,8 @@
           <t>4292083228</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:48:54</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44275.74229166667</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8358,10 +8162,8 @@
           <t>4292395899</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:46:37</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44275.74070601852</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8429,10 +8231,8 @@
           <t>4292387744</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:45:57</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44275.74024305555</v>
       </c>
       <c r="I109" t="n">
         <v>4</v>
@@ -8500,10 +8300,8 @@
           <t>4292378899</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:45:07</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44275.73966435185</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8571,10 +8369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:40:05</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44275.73616898148</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8646,10 +8442,8 @@
           <t>4292353926</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:39:12</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44275.73555555556</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8717,10 +8511,8 @@
           <t>4290942361</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:38:36</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44275.73513888889</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8788,10 +8580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:38:27</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44275.73503472222</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8860,10 +8650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:38:11</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44275.73484953704</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8927,10 +8715,8 @@
           <t>4292350088</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:36:45</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44275.73385416667</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8994,10 +8780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:36:34</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44275.73372685185</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -9065,10 +8849,8 @@
           <t>4290961080</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:36:22</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44275.73358796296</v>
       </c>
       <c r="I118" t="n">
         <v>2</v>
@@ -9128,10 +8910,8 @@
           <t>4292345037</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:36:03</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44275.73336805555</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9196,10 +8976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:33:13</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44275.73140046297</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -9263,10 +9041,8 @@
           <t>4292323947</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:32:56</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44275.7312037037</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9330,10 +9106,8 @@
           <t>4290942361</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:32:34</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44275.73094907407</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9397,10 +9171,8 @@
           <t>4292090812</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:32:12</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44275.73069444444</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9460,10 +9232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:32:02</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44275.7305787037</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9531,10 +9301,8 @@
           <t>4292318821</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:31:58</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44275.7305324074</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9598,10 +9366,8 @@
           <t>4292312312</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:29:47</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44275.7290162037</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -9665,10 +9431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:28:35</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44275.72818287037</v>
       </c>
       <c r="I127" t="n">
         <v>4</v>
@@ -9736,10 +9500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:27:08</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44275.72717592592</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -9807,10 +9569,8 @@
           <t>4292090812</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:27:06</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44275.72715277778</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9878,10 +9638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:25:43</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44275.72619212963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9953,10 +9711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:25:26</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44275.72599537037</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10020,10 +9776,8 @@
           <t>4290980316</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:23:50</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44275.72488425926</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10087,10 +9841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:22:52</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44275.72421296296</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10158,10 +9910,8 @@
           <t>4291736034</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:22:15</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44275.72378472222</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10225,10 +9975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:17:47</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44275.72068287037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10292,10 +10040,8 @@
           <t>4291479536</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:16:51</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44275.72003472222</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10355,10 +10101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:14:45</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44275.71857638889</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10430,10 +10174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:13:55</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44275.71799768518</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10505,10 +10247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:12:11</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44275.71679398148</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10576,10 +10316,8 @@
           <t>4292231212</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:11:48</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44275.71652777777</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10647,10 +10385,8 @@
           <t>4291479536</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:11:11</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44275.71609953704</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10718,10 +10454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:06:54</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44275.713125</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10789,10 +10523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:59:56</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44275.70828703704</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10864,10 +10596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:58:05</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44275.70700231481</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10939,10 +10669,8 @@
           <t>4292090812</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:57:33</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44275.70663194444</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11018,10 +10746,8 @@
           <t>4292157421</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:55:46</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44275.70539351852</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11089,10 +10815,8 @@
           <t>4292149328</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:54:09</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44275.70427083333</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11156,10 +10880,8 @@
           <t>4292144725</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:53:50</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44275.70405092592</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11223,10 +10945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:50:42</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44275.701875</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11286,10 +11006,8 @@
           <t>4292090812</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:48:48</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44275.70055555556</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11357,10 +11075,8 @@
           <t>4291771058</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:48:17</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44275.70019675926</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11436,10 +11152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:47:38</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44275.69974537037</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11507,10 +11221,8 @@
           <t>4292113439</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:45:46</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44275.69844907407</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11582,10 +11294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:45:19</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44275.69813657407</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11649,10 +11359,8 @@
           <t>4291354102</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:42:54</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44275.69645833333</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11728,10 +11436,8 @@
           <t>4292105080</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:41:15</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44275.6953125</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11799,10 +11505,8 @@
           <t>4292095375</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:39:58</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44275.6944212963</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11874,10 +11578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:39:54</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44275.694375</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11945,10 +11647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:39:24</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44275.69402777778</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12020,10 +11720,8 @@
           <t>4292090812</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:38:49</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44275.69362268518</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12091,10 +11789,8 @@
           <t>4292083228</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:38:23</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44275.69332175926</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -12170,10 +11866,8 @@
           <t>4292090812</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:38:07</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44275.69313657407</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12241,10 +11935,8 @@
           <t>4291902659</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:37:41</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44275.69283564815</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12308,10 +12000,8 @@
           <t>4291902659</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:36:42</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44275.69215277778</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12387,10 +12077,8 @@
           <t>4291479536</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:36:27</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44275.69197916667</v>
       </c>
       <c r="I165" t="n">
         <v>5</v>
@@ -12454,10 +12142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:36:04</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44275.69171296297</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12533,10 +12219,8 @@
           <t>4292069124</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:35:28</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44275.6912962963</v>
       </c>
       <c r="I167" t="n">
         <v>4</v>
@@ -12613,10 +12297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:34:55</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44275.69091435185</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12676,10 +12358,8 @@
           <t>4292060989</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:30:52</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44275.68810185185</v>
       </c>
       <c r="I169" t="n">
         <v>12</v>
@@ -12755,10 +12435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:29:50</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44275.68738425926</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12830,10 +12508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:29:48</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44275.68736111111</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12905,10 +12581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:29:34</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44275.68719907408</v>
       </c>
       <c r="I172" t="n">
         <v>108</v>
@@ -12984,10 +12658,8 @@
           <t>4292055380</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:29:24</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44275.68708333333</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13055,10 +12727,8 @@
           <t>4292034119</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:25:43</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44275.68452546297</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
@@ -13134,10 +12804,8 @@
           <t>4292018401</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:21:28</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44275.68157407407</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13205,10 +12873,8 @@
           <t>4291888781</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:19:41</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44275.68033564815</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13272,10 +12938,8 @@
           <t>4291648068</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:18:57</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44275.67982638889</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13351,10 +13015,8 @@
           <t>4292005561</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:18:09</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44275.67927083333</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13422,10 +13084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:17:54</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44275.67909722222</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13489,10 +13149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:14:35</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44275.67679398148</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13568,10 +13226,8 @@
           <t>4291978871</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:13:14</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44275.67585648148</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13647,10 +13303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:12:08</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44275.6750925926</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13719,10 +13373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:08:14</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44275.67238425926</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13794,10 +13446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:05:35</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44275.67054398148</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13873,10 +13523,8 @@
           <t>4291956905</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:05:20</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44275.67037037037</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13940,10 +13588,8 @@
           <t>4291899323</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:04:21</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44275.6696875</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14011,10 +13657,8 @@
           <t>4291944393</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:03:25</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44275.66903935185</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14078,10 +13722,8 @@
           <t>4291938785</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:02:38</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44275.66849537037</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14146,10 +13788,8 @@
           <t>4291941605</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:01:20</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44275.6675925926</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14217,10 +13857,8 @@
           <t>4291941098</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:00:57</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44275.66732638889</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14292,10 +13930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:00:42</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44275.66715277778</v>
       </c>
       <c r="I191" t="n">
         <v>3</v>
@@ -14371,10 +14007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:55:40</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44275.66365740741</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14450,10 +14084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:54:54</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44275.663125</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14529,10 +14161,8 @@
           <t>4291902659</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:53:42</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44275.66229166667</v>
       </c>
       <c r="I194" t="n">
         <v>11</v>
@@ -14596,10 +14226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:52:35</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44275.66151620371</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14663,10 +14291,8 @@
           <t>4291899323</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:51:54</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44275.66104166667</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14730,10 +14356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:51:02</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44275.66043981481</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14801,10 +14425,8 @@
           <t>4291888781</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:50:43</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44275.6602199074</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14868,10 +14490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:49:28</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44275.65935185185</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14935,10 +14555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:48:41</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44275.65880787037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15010,10 +14628,8 @@
           <t>4291883705</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:47:36</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44275.65805555556</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15081,10 +14697,8 @@
           <t>4291862864</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:42:38</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44275.65460648148</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15160,10 +14774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:42:08</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44275.65425925926</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15227,10 +14839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:42:05</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44275.65422453704</v>
       </c>
       <c r="I204" t="n">
         <v>2</v>
@@ -15306,10 +14916,8 @@
           <t>4291854123</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:39:57</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44275.65274305556</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15377,10 +14985,8 @@
           <t>4291843604</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:39:04</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44275.65212962963</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15452,10 +15058,8 @@
           <t>4291835171</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:37:34</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44275.65108796296</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15523,10 +15127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:37:19</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44275.65091435185</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15586,10 +15188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:36:58</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44275.65067129629</v>
       </c>
       <c r="I209" t="n">
         <v>18</v>
@@ -15649,10 +15249,8 @@
           <t>4291845410</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:36:55</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44275.65063657407</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15728,10 +15326,8 @@
           <t>4291176442</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:35:17</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44275.64950231482</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15799,10 +15395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:35:15</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44275.64947916667</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15870,10 +15464,8 @@
           <t>4291835171</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:32:53</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44275.64783564815</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15949,10 +15541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:32:34</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44275.64761574074</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16020,10 +15610,8 @@
           <t>4291197467</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:31:07</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44275.6466087963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16099,10 +15687,8 @@
           <t>4291184187</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:28:32</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44275.64481481481</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16178,10 +15764,8 @@
           <t>4291803745</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:27:49</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44275.64431712963</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16255,10 +15839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:27:29</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44275.64408564815</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16322,10 +15904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:27:28</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44275.64407407407</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16401,10 +15981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:27:14</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44275.64391203703</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16473,10 +16051,8 @@
           <t>4291648068</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:25:50</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44275.64293981482</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16540,10 +16116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:24:35</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44275.64207175926</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16612,10 +16186,8 @@
           <t>4291794531</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:24:31</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44275.64202546296</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16683,10 +16255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:22:42</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44275.64076388889</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16758,10 +16328,8 @@
           <t>4291176442</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:22:37</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44275.64070601852</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16829,10 +16397,8 @@
           <t>4291785963</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:21:36</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44275.64</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -16900,10 +16466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:21:13</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44275.6397337963</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16978,10 +16542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:18:47</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44275.63804398148</v>
       </c>
       <c r="I228" t="n">
         <v>77</v>
@@ -17045,10 +16607,8 @@
           <t>4291375209</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:17:37</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44275.6372337963</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17116,10 +16676,8 @@
           <t>4291771058</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:17:29</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44275.6371412037</v>
       </c>
       <c r="I230" t="n">
         <v>5</v>
@@ -17187,10 +16745,8 @@
           <t>4291063592</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:15:58</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44275.63608796296</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17254,10 +16810,8 @@
           <t>4291762635</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:15:08</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44275.63550925926</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17321,10 +16875,8 @@
           <t>4291757316</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:14:33</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44275.63510416666</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17392,10 +16944,8 @@
           <t>4291751972</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:14:04</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44275.63476851852</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17459,10 +17009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:09:52</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44275.63185185185</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17538,10 +17086,8 @@
           <t>4291736034</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:09:15</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44275.63142361111</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17609,10 +17155,8 @@
           <t>4291732615</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:07:12</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44275.63</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -17676,10 +17220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:04:23</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44275.62804398148</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17743,10 +17285,8 @@
           <t>4291263166</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:03:53</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44275.62769675926</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17824,10 +17364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:03:52</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44275.62768518519</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -17899,10 +17437,8 @@
           <t>4291354102</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:02:24</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44275.62666666666</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17966,10 +17502,8 @@
           <t>4291263166</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:01:13</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44275.62584490741</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18047,10 +17581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:00:48</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44275.62555555555</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18123,10 +17655,8 @@
           <t>4291694953</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:00:33</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44275.62538194445</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18194,10 +17724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:55:34</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44275.6219212963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18261,10 +17789,8 @@
           <t>4290961080</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:52:37</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44275.61987268519</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18332,10 +17858,8 @@
           <t>4291630882</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:49:56</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44275.61800925926</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18403,10 +17927,8 @@
           <t>4291184187</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:49:31</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44275.61771990741</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18474,10 +17996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:48:49</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44275.6172337963</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18537,10 +18057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:48:43</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44275.61716435185</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18616,10 +18134,8 @@
           <t>4291649891</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:48:28</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44275.61699074074</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18695,10 +18211,8 @@
           <t>4291032571</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:47:59</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44275.61665509259</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18766,10 +18280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:47:39</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44275.61642361111</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18841,10 +18353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:47:31</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44275.61633101852</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18917,10 +18427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:47:26</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44275.61627314815</v>
       </c>
       <c r="I255" t="n">
         <v>3</v>
@@ -18996,10 +18504,8 @@
           <t>4291648068</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:47:02</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44275.61599537037</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19075,10 +18581,8 @@
           <t>4290974129</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:44:16</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44275.61407407407</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19154,10 +18658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:43:44</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44275.6137037037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19222,10 +18724,8 @@
           <t>4291633570</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:43:29</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44275.6135300926</v>
       </c>
       <c r="I259" t="n">
         <v>4</v>
@@ -19301,10 +18801,8 @@
           <t>4291063592</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:43:19</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44275.61341435185</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -19380,10 +18878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:43:05</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44275.61325231481</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19451,10 +18947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:41:46</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44275.61233796296</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19518,10 +19012,8 @@
           <t>4291184187</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:41:39</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44275.61225694444</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19597,10 +19089,8 @@
           <t>4291032571</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:41:31</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44275.61216435185</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19668,10 +19158,8 @@
           <t>4291032571</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:40:19</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44275.61133101852</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19739,10 +19227,8 @@
           <t>4291625696</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:38:04</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44275.60976851852</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19810,10 +19296,8 @@
           <t>4291032571</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:37:39</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44275.60947916667</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19881,10 +19365,8 @@
           <t>4291263166</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:37:13</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44275.60917824074</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19952,10 +19434,8 @@
           <t>4291523694</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:36:52</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44275.60893518518</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20023,10 +19503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:36:49</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44275.60890046296</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20094,10 +19572,8 @@
           <t>4291213211</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:35:36</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44275.60805555555</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20175,10 +19651,8 @@
           <t>4291611090</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:34:32</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44275.60731481481</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20246,10 +19720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:33:30</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44275.60659722222</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20317,10 +19789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:33:04</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44275.6062962963</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20396,10 +19866,8 @@
           <t>4291594386</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:32:35</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44275.60596064815</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20467,10 +19935,8 @@
           <t>4291514978</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:30:51</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44275.60475694444</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20538,10 +20004,8 @@
           <t>4291592152</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:30:48</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44275.60472222222</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20613,10 +20077,8 @@
           <t>4291263166</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:30:46</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44275.60469907407</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20694,10 +20156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:29:12</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44275.60361111111</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20761,10 +20221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:28:40</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44275.60324074074</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20840,10 +20298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:28:34</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44275.60317129629</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20919,10 +20375,8 @@
           <t>4291572365</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:26:46</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44275.60192129629</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20991,10 +20445,8 @@
           <t>4291523694</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:25:36</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44275.60111111111</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21070,10 +20522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:23:54</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44275.59993055555</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21141,10 +20591,8 @@
           <t>4291563216</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:23:52</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44275.59990740741</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21216,10 +20664,8 @@
           <t>4291567108</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:23:33</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44275.5996875</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21291,10 +20737,8 @@
           <t>4291213211</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:22:37</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44275.59903935185</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21372,10 +20816,8 @@
           <t>4291561062</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:22:09</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44275.59871527777</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21447,10 +20889,8 @@
           <t>4291560983</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:22:06</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44275.59868055556</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21518,10 +20958,8 @@
           <t>4291457291</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:21:48</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44275.59847222222</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21589,10 +21027,8 @@
           <t>4291555047</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:20:58</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44275.59789351852</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21660,10 +21096,8 @@
           <t>4291523694</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:20:57</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44275.59788194444</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21731,10 +21165,8 @@
           <t>4291492994</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:20:14</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44275.59738425926</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21802,10 +21234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:20:10</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44275.59733796296</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21877,10 +21307,8 @@
           <t>4291063592</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:18:59</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44275.5965162037</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21945,10 +21373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:18:29</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44275.59616898148</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22024,10 +21450,8 @@
           <t>4291479536</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:18:21</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44275.59607638889</v>
       </c>
       <c r="I297" t="n">
         <v>4</v>
@@ -22103,10 +21527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:18:13</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44275.59598379629</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22179,10 +21601,8 @@
           <t>4291550206</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:18:10</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44275.59594907407</v>
       </c>
       <c r="I299" t="n">
         <v>120</v>
@@ -22250,10 +21670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:17:46</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44275.59567129629</v>
       </c>
       <c r="I300" t="n">
         <v>88</v>
@@ -22317,10 +21735,8 @@
           <t>4291541000</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:17:45</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44275.59565972222</v>
       </c>
       <c r="I301" t="n">
         <v>6</v>
@@ -22392,10 +21808,8 @@
           <t>4291529961</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:16:55</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44275.59508101852</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22463,10 +21877,8 @@
           <t>4291526246</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:14:00</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44275.59305555555</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22542,10 +21954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:13:39</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44275.5928125</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22622,10 +22032,8 @@
           <t>4291523694</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:13:11</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44275.59248842593</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22701,10 +22109,8 @@
           <t>4291514978</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:13:03</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44275.59239583334</v>
       </c>
       <c r="I306" t="n">
         <v>3</v>
@@ -22776,10 +22182,8 @@
           <t>4291511888</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:10:39</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44275.59072916667</v>
       </c>
       <c r="I307" t="n">
         <v>29</v>
@@ -22855,10 +22259,8 @@
           <t>4291516185</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:10:34</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44275.5906712963</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22926,10 +22328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:10:15</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44275.59045138889</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22989,10 +22389,8 @@
           <t>4291507953</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:08:52</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44275.58949074074</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23056,10 +22454,8 @@
           <t>4291503523</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:08:32</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44275.58925925926</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23127,10 +22523,8 @@
           <t>4291457291</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:05:53</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44275.58741898148</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23202,10 +22596,8 @@
           <t>4291492994</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:05:05</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44275.58686342592</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23277,10 +22669,8 @@
           <t>4291490251</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:02:58</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44275.58539351852</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23344,10 +22734,8 @@
           <t>4291464998</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:02:53</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44275.58533564815</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23415,10 +22803,8 @@
           <t>4291479536</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:02:25</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44275.58501157408</v>
       </c>
       <c r="I316" t="n">
         <v>22</v>
@@ -23490,10 +22876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:01:57</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44275.5846875</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23569,10 +22953,8 @@
           <t>4291457291</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:01:42</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44275.58451388889</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23640,10 +23022,8 @@
           <t>4291413262</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:59:42</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44275.583125</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23711,10 +23091,8 @@
           <t>4291475609</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:59:25</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44275.58292824074</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -23790,10 +23168,8 @@
           <t>4291464998</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:58:58</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44275.58261574074</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23857,10 +23233,8 @@
           <t>4291444205</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:58:38</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44275.58238425926</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23928,10 +23302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:58:05</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44275.58200231481</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24003,10 +23375,8 @@
           <t>4291459068</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:57:47</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44275.58179398148</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -24074,10 +23444,8 @@
           <t>4291463047</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:57:31</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44275.5816087963</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24145,10 +23513,8 @@
           <t>4290980316</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:56:47</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44275.58109953703</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24216,10 +23582,8 @@
           <t>4291453337</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:56:43</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44275.58105324074</v>
       </c>
       <c r="I327" t="n">
         <v>2</v>
@@ -24295,10 +23659,8 @@
           <t>4291457291</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:56:29</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44275.5808912037</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24366,10 +23728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:56:17</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44275.58075231482</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24433,10 +23793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:55:56</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44275.58050925926</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24512,10 +23870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:55:54</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44275.58048611111</v>
       </c>
       <c r="I331" t="n">
         <v>5</v>
@@ -24591,10 +23947,8 @@
           <t>4290980316</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:54:47</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44275.57971064815</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24662,10 +24016,8 @@
           <t>4291444205</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:54:14</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44275.5793287037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24733,10 +24085,8 @@
           <t>4290974738</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:53:18</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44275.57868055555</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24808,10 +24158,8 @@
           <t>4290957751</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:53:16</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44275.57865740741</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24879,10 +24227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:52:54</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44275.57840277778</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24946,10 +24292,8 @@
           <t>4291446654</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:52:48</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44275.57833333333</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25017,10 +24361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:52:06</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44275.57784722222</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25096,10 +24438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:47:52</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44275.5749074074</v>
       </c>
       <c r="I339" t="n">
         <v>2</v>
@@ -25175,10 +24515,8 @@
           <t>4291313973</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:46:56</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44275.57425925926</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25255,10 +24593,8 @@
           <t>4290980316</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:46:47</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44275.5741550926</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25322,10 +24658,8 @@
           <t>4290912730</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:46:31</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44275.5739699074</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25393,10 +24727,8 @@
           <t>4291413262</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:46:21</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44275.57385416667</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25472,10 +24804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:44:45</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44275.57274305556</v>
       </c>
       <c r="I344" t="n">
         <v>4</v>
@@ -25549,10 +24879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:44:37</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44275.57265046296</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25624,10 +24952,8 @@
           <t>4291399568</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:44:15</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44275.57239583333</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25695,10 +25021,8 @@
           <t>4291399568</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:43:40</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44275.57199074074</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25770,10 +25094,8 @@
           <t>4291300171</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:43:20</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44275.57175925926</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25850,10 +25172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:43:13</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44275.57167824074</v>
       </c>
       <c r="I349" t="n">
         <v>5</v>
@@ -25921,10 +25241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:42:55</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44275.57146990741</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25992,10 +25310,8 @@
           <t>4291386788</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:42:31</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44275.57119212963</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26067,10 +25383,8 @@
           <t>4290912730</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:42:10</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44275.57094907408</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26134,10 +25448,8 @@
           <t>4291390016</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:42:04</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44275.57087962963</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26205,10 +25517,8 @@
           <t>4291390016</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:39:46</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44275.56928240741</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26274,10 +25584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:39:03</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44275.56878472222</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26337,10 +25645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:38:59</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44275.56873842593</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26413,10 +25719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:38:59</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44275.56873842593</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26488,10 +25792,8 @@
           <t>4291386788</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:38:47</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44275.56859953704</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26565,10 +25867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:38:23</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44275.56832175926</v>
       </c>
       <c r="I359" t="n">
         <v>1023</v>
@@ -26632,10 +25932,8 @@
           <t>4291375209</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:36:24</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44275.56694444444</v>
       </c>
       <c r="I360" t="n">
         <v>3</v>
@@ -26703,10 +26001,8 @@
           <t>4290961080</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:36:13</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44275.56681712963</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26770,10 +26066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:36:12</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44275.56680555556</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26845,10 +26139,8 @@
           <t>4291320876</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:35:53</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44275.56658564815</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26916,10 +26208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:35:39</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44275.56642361111</v>
       </c>
       <c r="I364" t="n">
         <v>10</v>
@@ -26995,10 +26285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:35:03</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44275.56600694444</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27070,10 +26358,8 @@
           <t>4291320876</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:34:52</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44275.56587962963</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27145,10 +26431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:34:25</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44275.56556712963</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27224,10 +26508,8 @@
           <t>4291354102</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:32:58</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44275.56456018519</v>
       </c>
       <c r="I368" t="n">
         <v>8</v>
@@ -27303,10 +26585,8 @@
           <t>4291347267</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:32:28</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44275.56421296296</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27374,10 +26654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:31:36</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44275.56361111111</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27449,10 +26727,8 @@
           <t>4291355976</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:31:21</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44275.5634375</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27528,10 +26804,8 @@
           <t>4291351187</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:30:59</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44275.56318287037</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27607,10 +26881,8 @@
           <t>4291347267</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:30:52</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44275.56310185185</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27682,10 +26954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:30:51</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44275.56309027778</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27753,10 +27023,8 @@
           <t>4291197467</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:30:36</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44275.56291666667</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27824,10 +27092,8 @@
           <t>4291333104</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:30:27</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44275.5628125</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27895,10 +27161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:29:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44275.56231481482</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27966,10 +27230,8 @@
           <t>4291342721</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:29:09</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44275.56190972222</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28041,10 +27303,8 @@
           <t>4291320876</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:29:03</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44275.56184027778</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -28116,10 +27376,8 @@
           <t>4291197467</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:28:57</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44275.56177083333</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28183,10 +27441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:28:38</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44275.56155092592</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -28262,10 +27518,8 @@
           <t>4291333104</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:27:59</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44275.56109953704</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28333,10 +27587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:26:48</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44275.56027777777</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28412,10 +27664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:25:23</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44275.55929398148</v>
       </c>
       <c r="I384" t="n">
         <v>20</v>
@@ -28479,10 +27729,8 @@
           <t>4291312336</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:24:17</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44275.5585300926</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28550,10 +27798,8 @@
           <t>4291320876</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:24:03</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44275.55836805556</v>
       </c>
       <c r="I386" t="n">
         <v>3</v>
@@ -28625,10 +27871,8 @@
           <t>4291313973</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:23:17</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44275.55783564815</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28700,10 +27944,8 @@
           <t>4291310609</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:23:05</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44275.55769675926</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28771,10 +28013,8 @@
           <t>4291174915</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:22:40</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44275.55740740741</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28842,10 +28082,8 @@
           <t>4291312336</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:22:14</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44275.55710648148</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28917,10 +28155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:22:12</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44275.55708333333</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -28984,10 +28220,8 @@
           <t>4291310609</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:21:06</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44275.55631944445</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29059,10 +28293,8 @@
           <t>4291275559</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:20:59</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44275.55623842592</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29130,10 +28362,8 @@
           <t>4291301713</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:20:17</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44275.55575231482</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29201,10 +28431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:19:56</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44275.55550925926</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29280,10 +28508,8 @@
           <t>4291269459</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:19:55</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44275.55549768519</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29351,10 +28577,8 @@
           <t>4291300171</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:19:17</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44275.55505787037</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29422,10 +28646,8 @@
           <t>4291243413</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:19:02</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44275.55488425926</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29493,10 +28715,8 @@
           <t>4290920371</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:17:23</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44275.55373842592</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29556,10 +28776,8 @@
           <t>4291198966</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:17:18</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44275.55368055555</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29627,10 +28845,8 @@
           <t>4291284390</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:17:10</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44275.55358796296</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29694,10 +28910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:16:15</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44275.55295138889</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29761,10 +28975,8 @@
           <t>4291174915</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:16:04</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44275.55282407408</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29840,10 +29052,8 @@
           <t>4291212997</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:16:01</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44275.55278935185</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29911,10 +29121,8 @@
           <t>4291025201</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:15:16</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44275.55226851852</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29982,10 +29190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:14:56</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44275.55203703704</v>
       </c>
       <c r="I406" t="n">
         <v>267</v>
@@ -30057,10 +29263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:14:52</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44275.55199074074</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30120,10 +29324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:14:51</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44275.55197916667</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30199,10 +29401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:14:27</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44275.55170138889</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30274,10 +29474,8 @@
           <t>4291275559</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:14:07</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44275.5514699074</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30353,10 +29551,8 @@
           <t>4291269459</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:14:07</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44275.5514699074</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30428,10 +29624,8 @@
           <t>4291063592</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:13:47</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44275.55123842593</v>
       </c>
       <c r="I412" t="n">
         <v>2</v>
@@ -30491,10 +29685,8 @@
           <t>4291263166</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:12:35</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44275.5504050926</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30558,10 +29750,8 @@
           <t>4291197467</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:12:32</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44275.55037037037</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30629,10 +29819,8 @@
           <t>4291259466</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:12:28</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44275.55032407407</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -30704,10 +29892,8 @@
           <t>4291258104</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:11:37</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44275.5497337963</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30776,10 +29962,8 @@
           <t>4291188628</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:10:49</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44275.54917824074</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30847,10 +30031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:10:28</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44275.54893518519</v>
       </c>
       <c r="I418" t="n">
         <v>28</v>
@@ -30926,10 +30108,8 @@
           <t>4291025201</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:10:05</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44275.54866898148</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31001,10 +30181,8 @@
           <t>4291255440</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:09:56</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44275.54856481482</v>
       </c>
       <c r="I420" t="n">
         <v>3</v>
@@ -31076,10 +30254,8 @@
           <t>4291192349</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:09:56</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44275.54856481482</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31147,10 +30323,8 @@
           <t>4291191788</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:09:39</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44275.54836805556</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31218,10 +30392,8 @@
           <t>4291184187</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:09:12</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44275.54805555556</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31289,10 +30461,8 @@
           <t>4291174915</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:08:41</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44275.54769675926</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31360,10 +30530,8 @@
           <t>4291243413</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:08:36</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44275.54763888889</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31423,10 +30591,8 @@
           <t>4291061700</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:07:22</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44275.54678240741</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31494,10 +30660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:07:09</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44275.54663194445</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31561,10 +30725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:05:47</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44275.54568287037</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31628,10 +30790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:05:37</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44275.54556712963</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31691,10 +30851,8 @@
           <t>4291176442</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:05:12</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44275.54527777778</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31762,10 +30920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:04:14</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44275.54460648148</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31841,10 +30997,8 @@
           <t>4291168939</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:03:56</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44275.54439814815</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31912,10 +31066,8 @@
           <t>4291225508</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:03:35</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44275.54415509259</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31991,10 +31143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:03:26</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44275.54405092593</v>
       </c>
       <c r="I434" t="n">
         <v>10</v>
@@ -32070,10 +31220,8 @@
           <t>4291225011</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:03:16</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44275.54393518518</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32141,10 +31289,8 @@
           <t>4291217975</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:03:12</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44275.54388888889</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32220,10 +31366,8 @@
           <t>4290912730</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:02:57</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44275.54371527778</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32295,10 +31439,8 @@
           <t>4291093764</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:02:45</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44275.54357638889</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32366,10 +31508,8 @@
           <t>4290912730</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:02:12</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44275.54319444444</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32437,10 +31577,8 @@
           <t>4291213211</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:02:10</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44275.5431712963</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32516,10 +31654,8 @@
           <t>4291212997</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:02:03</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44275.54309027778</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32579,10 +31715,8 @@
           <t>4291216054</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:02:02</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44275.5430787037</v>
       </c>
       <c r="I442" t="n">
         <v>3</v>
@@ -32654,10 +31788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:01:18</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44275.54256944444</v>
       </c>
       <c r="I443" t="n">
         <v>6</v>
@@ -32733,10 +31865,8 @@
           <t>4290925089</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:00:57</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44275.54232638889</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32815,10 +31945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:00:45</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44275.5421875</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32878,10 +32006,8 @@
           <t>4291202938</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:00:10</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44275.54178240741</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32957,10 +32083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:59:56</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44275.54162037037</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33020,10 +32144,8 @@
           <t>4291003906</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:59:32</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44275.54134259259</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33091,10 +32213,8 @@
           <t>4291198966</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:59:32</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44275.54134259259</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33166,10 +32286,8 @@
           <t>4291205031</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:59:06</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44275.54104166666</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33245,10 +32363,8 @@
           <t>4291197467</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:58:37</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44275.54070601852</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33312,10 +32428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:58:18</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44275.54048611111</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33383,10 +32497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:57:54</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44275.54020833333</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33454,10 +32566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:57:53</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44275.54019675926</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33529,10 +32639,8 @@
           <t>4291188628</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:57:36</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44275.54</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33596,10 +32704,8 @@
           <t>4291192349</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:57:29</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44275.53991898148</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33667,10 +32773,8 @@
           <t>4291195494</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:57:24</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44275.53986111111</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33738,10 +32842,8 @@
           <t>4291191788</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:57:09</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44275.5396875</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33809,10 +32911,8 @@
           <t>4290912730</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:57:03</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44275.53961805555</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33880,10 +32980,8 @@
           <t>4291186974</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:56:36</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44275.53930555555</v>
       </c>
       <c r="I460" t="n">
         <v>5</v>
@@ -33951,10 +33049,8 @@
           <t>4291184187</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:56:35</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44275.53929398148</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34030,10 +33126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:55:47</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44275.53873842592</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34105,10 +33199,8 @@
           <t>4291174915</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:55:24</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44275.53847222222</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34184,10 +33276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:55:17</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44275.53839120371</v>
       </c>
       <c r="I464" t="n">
         <v>115</v>
@@ -34252,10 +33342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:55:10</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44275.53831018518</v>
       </c>
       <c r="I465" t="n">
         <v>71</v>
@@ -34323,10 +33411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:54:43</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44275.53799768518</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34398,10 +33484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:54:23</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44275.53776620371</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34469,10 +33553,8 @@
           <t>4291061700</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:54:18</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44275.53770833334</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34540,10 +33622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:54:00</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44275.5375</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34612,10 +33692,8 @@
           <t>4291176442</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:53:52</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44275.53740740741</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34683,10 +33761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:53:38</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44275.53724537037</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34750,10 +33826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:53:19</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44275.53702546296</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34821,10 +33895,8 @@
           <t>4291168939</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:53:17</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44275.53700231481</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34892,10 +33964,8 @@
           <t>4291162127</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:53:08</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44275.53689814815</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34963,10 +34033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:52:57</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44275.53677083334</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -35026,10 +34094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:51:25</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44275.53570601852</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35097,10 +34163,8 @@
           <t>4291162127</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:51:21</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44275.53565972222</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35164,10 +34228,8 @@
           <t>4291157296</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:50:56</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44275.53537037037</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35231,10 +34293,8 @@
           <t>4291157230</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:50:53</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44275.53533564815</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35302,10 +34362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:50:43</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44275.5352199074</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35373,10 +34431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:50:41</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44275.53519675926</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35448,10 +34504,8 @@
           <t>4291142016</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:50:38</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44275.53516203703</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35519,10 +34573,8 @@
           <t>4291160402</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:50:21</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44275.53496527778</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35590,10 +34642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:49:58</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44275.53469907407</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35665,10 +34715,8 @@
           <t>4291145231</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:49:46</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44275.53456018519</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35736,10 +34784,8 @@
           <t>4291149334</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:49:43</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44275.53452546296</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -35803,10 +34849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:49:41</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44275.53450231482</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35870,10 +34914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:49:35</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44275.53443287037</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35937,10 +34979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:48:53</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44275.53394675926</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36004,10 +35044,8 @@
           <t>4291143200</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:48:33</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44275.53371527778</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36067,10 +35105,8 @@
           <t>4291045821</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:48:10</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44275.53344907407</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36138,10 +35174,8 @@
           <t>4291142016</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:47:49</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44275.53320601852</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36217,10 +35251,8 @@
           <t>4290957751</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:47:31</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44275.53299768519</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36284,10 +35316,8 @@
           <t>4291145231</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:47:15</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44275.5328125</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36351,10 +35381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:47:11</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44275.5327662037</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36426,10 +35454,8 @@
           <t>4291136689</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:45:52</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44275.53185185185</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36493,10 +35519,8 @@
           <t>4291128530</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:45:45</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44275.53177083333</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36560,10 +35584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:45:17</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44275.53144675926</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36623,10 +35645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:45:16</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44275.53143518518</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -36698,10 +35718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:44:23</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44275.53082175926</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36773,10 +35791,8 @@
           <t>4291124113</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:44:19</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44275.53077546296</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36852,10 +35868,8 @@
           <t>4291064324</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:44:19</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44275.53077546296</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36923,10 +35937,8 @@
           <t>4291123609</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:44:02</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44275.53057870371</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -36994,10 +36006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:43:54</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44275.53048611111</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37074,10 +36084,8 @@
           <t>4291032571</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:43:53</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44275.53047453704</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37145,10 +36153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:43:43</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44275.5303587963</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37220,10 +36226,8 @@
           <t>4291114760</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:43:33</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44275.53024305555</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37287,10 +36291,8 @@
           <t>4291122358</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:43:17</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44275.53005787037</v>
       </c>
       <c r="I508" t="n">
         <v>2</v>
@@ -37366,10 +36368,8 @@
           <t>4291064324</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:43:06</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44275.52993055555</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37442,10 +36442,8 @@
           <t>4291045821</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:43:06</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44275.52993055555</v>
       </c>
       <c r="I510" t="n">
         <v>2</v>
@@ -37517,10 +36515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:43:03</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44275.52989583334</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37596,10 +36592,8 @@
           <t>4291061700</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:42:45</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44275.5296875</v>
       </c>
       <c r="I512" t="n">
         <v>2</v>
@@ -37667,10 +36661,8 @@
           <t>4291078962</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:42:32</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44275.52953703704</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37746,10 +36738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:42:20</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44275.52939814814</v>
       </c>
       <c r="I514" t="n">
         <v>2</v>
@@ -37809,10 +36799,8 @@
           <t>4291105923</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:41:54</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44275.52909722222</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37880,10 +36868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:41:35</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44275.52887731481</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37951,10 +36937,8 @@
           <t>4291032571</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:41:19</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44275.52869212963</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38022,10 +37006,8 @@
           <t>4290974738</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:41:13</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44275.52862268518</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38090,10 +37072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:40:32</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44275.52814814815</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38161,10 +37141,8 @@
           <t>4291061700</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:40:32</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44275.52814814815</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38240,10 +37218,8 @@
           <t>4291078962</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:40:27</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44275.52809027778</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38311,10 +37287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:40:04</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44275.52782407407</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38382,10 +37356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:39:59</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44275.5277662037</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38445,10 +37417,8 @@
           <t>4291025201</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:39:29</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44275.52741898148</v>
       </c>
       <c r="I524" t="n">
         <v>2</v>
@@ -38516,10 +37486,8 @@
           <t>4291105923</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:39:26</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44275.52738425926</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38587,10 +37555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:38:47</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44275.52693287037</v>
       </c>
       <c r="I526" t="n">
         <v>7</v>
@@ -38662,10 +37628,8 @@
           <t>4290961080</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:38:41</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44275.52686342593</v>
       </c>
       <c r="I527" t="n">
         <v>16</v>
@@ -38725,10 +37689,8 @@
           <t>4291061700</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:38:32</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44275.52675925926</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38796,10 +37758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:38:30</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44275.52673611111</v>
       </c>
       <c r="I529" t="n">
         <v>3</v>
@@ -38871,10 +37831,8 @@
           <t>4291093764</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:38:07</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44275.52646990741</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38938,10 +37896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:37:55</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44275.52633101852</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -39005,10 +37961,8 @@
           <t>4291063592</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:37:55</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44275.52633101852</v>
       </c>
       <c r="I532" t="n">
         <v>6</v>
@@ -39084,10 +38038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:37:41</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44275.52616898148</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39151,10 +38103,8 @@
           <t>4291049600</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:37:30</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44275.52604166666</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39222,10 +38172,8 @@
           <t>4291063592</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:36:43</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44275.52549768519</v>
       </c>
       <c r="I535" t="n">
         <v>2</v>
@@ -39289,10 +38237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:35:37</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44275.52473379629</v>
       </c>
       <c r="I536" t="n">
         <v>27</v>
@@ -39356,10 +38302,8 @@
           <t>4291011465</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:35:32</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44275.52467592592</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39423,10 +38367,8 @@
           <t>4291078962</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:35:19</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44275.52452546296</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39502,10 +38444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:34:34</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44275.52400462963</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39573,10 +38513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:34:19</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44275.52383101852</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39636,10 +38574,8 @@
           <t>4291032571</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:33:57</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44275.52357638889</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39707,10 +38643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:33:56</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44275.52356481482</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -39774,10 +38708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:33:55</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44275.52355324074</v>
       </c>
       <c r="I543" t="n">
         <v>3</v>
@@ -39837,10 +38769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:33:19</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44275.52313657408</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -39916,10 +38846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:33:15</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44275.52309027778</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -39987,10 +38915,8 @@
           <t>4291023489</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:32:59</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44275.52290509259</v>
       </c>
       <c r="I546" t="n">
         <v>2</v>
@@ -40058,10 +38984,8 @@
           <t>4291064324</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:32:34</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44275.52261574074</v>
       </c>
       <c r="I547" t="n">
         <v>2</v>
@@ -40131,10 +39055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:32:31</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44275.52258101852</v>
       </c>
       <c r="I548" t="n">
         <v>69</v>
@@ -40194,10 +39116,8 @@
           <t>4291025201</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:32:18</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44275.52243055555</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40269,10 +39189,8 @@
           <t>4291045467</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:32:15</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44275.52239583333</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40340,10 +39258,8 @@
           <t>4291063592</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:32:09</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44275.52232638889</v>
       </c>
       <c r="I551" t="n">
         <v>4</v>
@@ -40407,10 +39323,8 @@
           <t>4291045821</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:31:55</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44275.52216435185</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40478,10 +39392,8 @@
           <t>4290912730</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:31:34</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44275.5219212963</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40553,10 +39465,8 @@
           <t>4291037539</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:31:14</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44275.52168981481</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40624,10 +39534,8 @@
           <t>4291061700</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:31:03</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44275.5215625</v>
       </c>
       <c r="I555" t="n">
         <v>1</v>
@@ -40695,10 +39603,8 @@
           <t>4291035255</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:30:58</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44275.52150462963</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40766,10 +39672,8 @@
           <t>4290925089</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:30:56</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44275.52148148148</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40841,10 +39745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:30:37</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44275.52126157407</v>
       </c>
       <c r="I558" t="n">
         <v>11</v>
@@ -40916,10 +39818,8 @@
           <t>4291046780</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:30:36</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44275.52125</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -40987,10 +39887,8 @@
           <t>4291003906</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:29:58</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44275.52081018518</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41062,10 +39960,8 @@
           <t>4291049657</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:29:52</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44275.52074074074</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41133,10 +40029,8 @@
           <t>4291049600</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:29:50</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44275.52071759259</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41204,10 +40098,8 @@
           <t>4290904828</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:28:40</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44275.5199074074</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41271,10 +40163,8 @@
           <t>4291011465</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:28:34</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44275.51983796297</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41351,10 +40241,8 @@
           <t>4291011026</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:28:30</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44275.51979166667</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41431,10 +40319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:28:21</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44275.5196875</v>
       </c>
       <c r="I566" t="n">
         <v>10</v>
@@ -41502,10 +40388,8 @@
           <t>4291046780</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:28:10</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44275.51956018519</v>
       </c>
       <c r="I567" t="n">
         <v>2</v>
@@ -41581,10 +40465,8 @@
           <t>4291037539</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:28:03</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44275.51947916667</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41648,10 +40530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:27:51</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44275.51934027778</v>
       </c>
       <c r="I569" t="n">
         <v>33</v>
@@ -41723,10 +40603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:27:45</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44275.51927083333</v>
       </c>
       <c r="I570" t="n">
         <v>34</v>
@@ -41790,10 +40668,8 @@
           <t>4291045821</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:27:38</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44275.51918981481</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41857,10 +40733,8 @@
           <t>4291045467</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:27:26</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44275.51905092593</v>
       </c>
       <c r="I572" t="n">
         <v>3</v>
@@ -41932,10 +40806,8 @@
           <t>4291003906</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:27:18</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44275.51895833333</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42003,10 +40875,8 @@
           <t>4290912730</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:26:58</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44275.51872685185</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42070,10 +40940,8 @@
           <t>4291035255</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:26:48</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44275.51861111111</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42145,10 +41013,8 @@
           <t>4290925089</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:26:45</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44275.51857638889</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42212,10 +41078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:26:19</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44275.51827546296</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42279,10 +41143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:26:19</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44275.51827546296</v>
       </c>
       <c r="I578" t="n">
         <v>2</v>
@@ -42358,10 +41220,8 @@
           <t>4291025201</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:26:13</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44275.51820601852</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42429,10 +41289,8 @@
           <t>4291023489</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:25:51</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44275.51795138889</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42505,10 +41363,8 @@
           <t>4291032571</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:25:47</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44275.51790509259</v>
       </c>
       <c r="I581" t="n">
         <v>2</v>
@@ -42576,10 +41432,8 @@
           <t>4291003906</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:25:22</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44275.51761574074</v>
       </c>
       <c r="I582" t="n">
         <v>1</v>
@@ -42656,10 +41510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:25:07</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44275.51744212963</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42735,10 +41587,8 @@
           <t>4290933999</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:24:57</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44275.51732638889</v>
       </c>
       <c r="I584" t="n">
         <v>3</v>
@@ -42806,10 +41656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:24:44</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44275.51717592592</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42873,10 +41721,8 @@
           <t>4291025201</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:24:10</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44275.51678240741</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -42948,10 +41794,8 @@
           <t>4291014568</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:23:49</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44275.51653935185</v>
       </c>
       <c r="I587" t="n">
         <v>3</v>
@@ -43023,10 +41867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:23:08</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44275.51606481482</v>
       </c>
       <c r="I588" t="n">
         <v>3</v>
@@ -43102,10 +41944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:22:50</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44275.51585648148</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43177,10 +42017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:22:13</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44275.51542824074</v>
       </c>
       <c r="I590" t="n">
         <v>95</v>
@@ -43258,10 +42096,8 @@
           <t>4291011465</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:22:05</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44275.51533564815</v>
       </c>
       <c r="I591" t="n">
         <v>9</v>
@@ -43325,10 +42161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:22:02</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44275.51530092592</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43388,10 +42222,8 @@
           <t>4291011026</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:21:49</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44275.51515046296</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43459,10 +42291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:21:28</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44275.51490740741</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43526,10 +42356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:21:06</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44275.51465277778</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
@@ -43593,10 +42421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:20:57</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44275.51454861111</v>
       </c>
       <c r="I596" t="n">
         <v>1</v>
@@ -43672,10 +42498,8 @@
           <t>4291003906</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:20:35</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44275.51429398148</v>
       </c>
       <c r="I597" t="n">
         <v>2</v>
@@ -43747,10 +42571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:20:33</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44275.51427083334</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -43826,10 +42648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:19:47</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44275.51373842593</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -43897,10 +42717,8 @@
           <t>4290976765</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:19:16</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44275.51337962963</v>
       </c>
       <c r="I600" t="n">
         <v>9</v>
@@ -43976,10 +42794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:18:11</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44275.51262731481</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44051,10 +42867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:18:11</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44275.51262731481</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44126,10 +42940,8 @@
           <t>4290954743</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:18:03</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44275.51253472222</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44197,10 +43009,8 @@
           <t>4290989312</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:17:56</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44275.5124537037</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44260,10 +43070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:17:54</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44275.51243055556</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44331,10 +43139,8 @@
           <t>4290980316</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:17:24</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44275.51208333333</v>
       </c>
       <c r="I606" t="n">
         <v>3</v>
@@ -44402,10 +43208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:16:41</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44275.51158564815</v>
       </c>
       <c r="I607" t="n">
         <v>200</v>
@@ -44482,10 +43286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:16:39</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44275.5115625</v>
       </c>
       <c r="I608" t="n">
         <v>74</v>
@@ -44553,10 +43355,8 @@
           <t>4290967858</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:16:32</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44275.51148148148</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44624,10 +43424,8 @@
           <t>4290976765</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:16:10</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44275.51122685185</v>
       </c>
       <c r="I610" t="n">
         <v>24</v>
@@ -44691,10 +43489,8 @@
           <t>4290981213</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:16:03</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44275.51114583333</v>
       </c>
       <c r="I611" t="n">
         <v>5</v>
@@ -44770,10 +43566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:15:59</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44275.51109953703</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -44833,10 +43627,8 @@
           <t>4290985697</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:15:51</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44275.51100694444</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -44908,10 +43700,8 @@
           <t>4290980316</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:15:32</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44275.51078703703</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -44975,10 +43765,8 @@
           <t>4290974738</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:15:17</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44275.51061342593</v>
       </c>
       <c r="I615" t="n">
         <v>2</v>
@@ -45050,10 +43838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:15:00</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44275.51041666666</v>
       </c>
       <c r="I616" t="n">
         <v>2</v>
@@ -45129,10 +43915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:14:59</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44275.51040509259</v>
       </c>
       <c r="I617" t="n">
         <v>9</v>
@@ -45196,10 +43980,8 @@
           <t>4290955471</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:14:59</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44275.51040509259</v>
       </c>
       <c r="I618" t="n">
         <v>2</v>
@@ -45271,10 +44053,8 @@
           <t>4290974129</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:14:56</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44275.51037037037</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45334,10 +44114,8 @@
           <t>4290920371</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:14:38</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44275.51016203704</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45409,10 +44187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:14:19</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44275.50994212963</v>
       </c>
       <c r="I621" t="n">
         <v>21</v>
@@ -45480,10 +44256,8 @@
           <t>4290961080</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:14:11</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44275.50984953704</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45552,10 +44326,8 @@
           <t>4290967858</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:14:02</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44275.50974537037</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -45627,10 +44399,8 @@
           <t>4290948266</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:14:01</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44275.50973379629</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45698,10 +44468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:13:38</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44275.50946759259</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -45773,10 +44541,8 @@
           <t>4290942361</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:13:26</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44275.5093287037</v>
       </c>
       <c r="I626" t="n">
         <v>2</v>
@@ -45855,10 +44621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:13:05</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44275.50908564815</v>
       </c>
       <c r="I627" t="n">
         <v>9</v>
@@ -45926,10 +44690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:12:55</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44275.50896990741</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46005,10 +44767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:12:48</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44275.50888888889</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46085,10 +44845,8 @@
           <t>4290961080</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:12:44</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44275.50884259259</v>
       </c>
       <c r="I630" t="n">
         <v>64</v>
@@ -46156,10 +44914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:12:17</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44275.50853009259</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46219,10 +44975,8 @@
           <t>4290954743</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:12:10</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44275.50844907408</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46294,10 +45048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:11:43</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44275.50813657408</v>
       </c>
       <c r="I633" t="n">
         <v>1</v>
@@ -46373,10 +45125,8 @@
           <t>4290957751</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:11:10</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44275.50775462963</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46444,10 +45194,8 @@
           <t>4290953048</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:11:10</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44275.50775462963</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46516,10 +45264,8 @@
           <t>4290948266</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:11:07</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44275.50771990741</v>
       </c>
       <c r="I636" t="n">
         <v>1</v>
@@ -46595,10 +45341,8 @@
           <t>4290947802</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:10:50</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44275.50752314815</v>
       </c>
       <c r="I637" t="n">
         <v>1</v>
@@ -46666,10 +45410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:10:35</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44275.50734953704</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -46733,10 +45475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:10:14</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44275.50710648148</v>
       </c>
       <c r="I639" t="n">
         <v>6</v>
@@ -46812,10 +45552,8 @@
           <t>4290955471</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:09:50</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44275.50682870371</v>
       </c>
       <c r="I640" t="n">
         <v>14</v>
@@ -46891,10 +45629,8 @@
           <t>4290942361</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:09:41</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44275.50672453704</v>
       </c>
       <c r="I641" t="n">
         <v>1</v>
@@ -46971,10 +45707,8 @@
           <t>4290942361</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:09:21</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44275.50649305555</v>
       </c>
       <c r="I642" t="n">
         <v>4</v>
@@ -47042,10 +45776,8 @@
           <t>4290933999</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:08:39</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44275.50600694444</v>
       </c>
       <c r="I643" t="n">
         <v>4</v>
@@ -47109,10 +45841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:08:28</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44275.50587962963</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47176,10 +45906,8 @@
           <t>4290942361</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:08:01</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44275.50556712963</v>
       </c>
       <c r="I645" t="n">
         <v>13</v>
@@ -47247,10 +45975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:07:47</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44275.50540509259</v>
       </c>
       <c r="I646" t="n">
         <v>2</v>
@@ -47322,10 +46048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:07:42</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44275.50534722222</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47393,10 +46117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:07:25</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44275.50515046297</v>
       </c>
       <c r="I648" t="n">
         <v>31</v>
@@ -47461,10 +46183,8 @@
           <t>4290941316</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:07:25</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44275.50515046297</v>
       </c>
       <c r="I649" t="n">
         <v>17</v>
@@ -47532,10 +46252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:06:57</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44275.50482638889</v>
       </c>
       <c r="I650" t="n">
         <v>5</v>
@@ -47608,10 +46326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:06:50</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44275.50474537037</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47688,10 +46404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:06:47</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44275.50471064815</v>
       </c>
       <c r="I652" t="n">
         <v>169</v>
@@ -47760,10 +46474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:06:46</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44275.50469907407</v>
       </c>
       <c r="I653" t="n">
         <v>1</v>
@@ -47835,10 +46547,8 @@
           <t>4290928853</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:05:59</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44275.5041550926</v>
       </c>
       <c r="I654" t="n">
         <v>4</v>
@@ -47910,10 +46620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:05:17</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44275.50366898148</v>
       </c>
       <c r="I655" t="n">
         <v>4</v>
@@ -47985,10 +46693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:05:14</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44275.50363425926</v>
       </c>
       <c r="I656" t="n">
         <v>5</v>
@@ -48060,10 +46766,8 @@
           <t>4290926602</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:04:38</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44275.5032175926</v>
       </c>
       <c r="I657" t="n">
         <v>2</v>
@@ -48127,10 +46831,8 @@
           <t>4290926473</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:04:33</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44275.50315972222</v>
       </c>
       <c r="I658" t="n">
         <v>3</v>
@@ -48207,10 +46909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:04:31</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44275.50313657407</v>
       </c>
       <c r="I659" t="n">
         <v>8</v>
@@ -48278,10 +46978,8 @@
           <t>4290925089</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:04:17</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44275.50297453703</v>
       </c>
       <c r="I660" t="n">
         <v>1</v>
@@ -48349,10 +47047,8 @@
           <t>4290915962</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:58</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44275.50275462963</v>
       </c>
       <c r="I661" t="n">
         <v>14</v>
@@ -48424,10 +47120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:57</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44275.50274305556</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48488,10 +47182,8 @@
           <t>4290925089</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:47</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44275.50262731482</v>
       </c>
       <c r="I663" t="n">
         <v>44</v>
@@ -48568,10 +47260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:47</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44275.50262731482</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -48635,10 +47325,8 @@
           <t>4290912730</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:45</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44275.50260416666</v>
       </c>
       <c r="I665" t="n">
         <v>108</v>
@@ -48706,10 +47394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:42</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44275.50256944444</v>
       </c>
       <c r="I666" t="n">
         <v>1</v>
@@ -48781,10 +47467,8 @@
           <t>4290920371</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:39</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44275.50253472223</v>
       </c>
       <c r="I667" t="n">
         <v>19</v>
@@ -48852,10 +47536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:38</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44275.50252314815</v>
       </c>
       <c r="I668" t="n">
         <v>1</v>
@@ -48927,10 +47609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:27</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44275.50239583333</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49006,10 +47686,8 @@
           <t>4290904828</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:18</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44275.50229166666</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -49073,10 +47751,8 @@
           <t>4290913934</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:03:07</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44275.50216435185</v>
       </c>
       <c r="I671" t="n">
         <v>3</v>
@@ -49152,10 +47828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:02:43</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44275.50188657407</v>
       </c>
       <c r="I672" t="n">
         <v>730</v>
@@ -49227,10 +47901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:02:32</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44275.50175925926</v>
       </c>
       <c r="I673" t="n">
         <v>1</v>
@@ -49306,10 +47978,8 @@
           <t>4290912730</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:02:27</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44275.50170138889</v>
       </c>
       <c r="I674" t="n">
         <v>36</v>
@@ -49381,10 +48051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:02:23</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44275.50165509259</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49460,10 +48128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:02:05</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44275.50144675926</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49535,10 +48201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:02:04</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44275.50143518519</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -49614,10 +48278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:02:01</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44275.50140046296</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -49693,10 +48355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:58</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44275.50136574074</v>
       </c>
       <c r="I679" t="n">
         <v>13</v>
@@ -49768,10 +48428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:54</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44275.50131944445</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -49839,10 +48497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:40</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44275.50115740741</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -49911,10 +48567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:37</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44275.50112268519</v>
       </c>
       <c r="I682" t="n">
         <v>1692</v>
@@ -49982,10 +48636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:30</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44275.50104166667</v>
       </c>
       <c r="I683" t="n">
         <v>4</v>
@@ -50061,10 +48713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:27</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44275.50100694445</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50136,10 +48786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:25</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44275.50098379629</v>
       </c>
       <c r="I685" t="n">
         <v>1</v>
@@ -50215,10 +48863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:20</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44275.50092592592</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50286,10 +48932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:09</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44275.50079861111</v>
       </c>
       <c r="I687" t="n">
         <v>2</v>
@@ -50357,10 +49001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:01:00</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44275.50069444445</v>
       </c>
       <c r="I688" t="n">
         <v>1</v>
@@ -50424,10 +49066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:49</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44275.50056712963</v>
       </c>
       <c r="I689" t="n">
         <v>1</v>
@@ -50503,10 +49143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:45</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44275.50052083333</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -50570,10 +49208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:44</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44275.50050925926</v>
       </c>
       <c r="I691" t="n">
         <v>69</v>
@@ -50642,10 +49278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:43</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44275.50049768519</v>
       </c>
       <c r="I692" t="n">
         <v>1</v>
@@ -50721,10 +49355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:42</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44275.50048611111</v>
       </c>
       <c r="I693" t="n">
         <v>1</v>
@@ -50788,10 +49420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:41</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44275.50047453704</v>
       </c>
       <c r="I694" t="n">
         <v>306</v>
@@ -50860,10 +49490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:39</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44275.50045138889</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -50939,10 +49567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:36</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44275.50041666667</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -51010,10 +49636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:36</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44275.50041666667</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -51089,10 +49713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:32</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44275.50037037037</v>
       </c>
       <c r="I698" t="n">
         <v>3</v>
@@ -51160,10 +49782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:30</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44275.50034722222</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -51223,10 +49843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:27</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44275.5003125</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51294,10 +49912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:22</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44275.50025462963</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -51369,10 +49985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:19</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44275.50021990741</v>
       </c>
       <c r="I702" t="n">
         <v>1</v>
@@ -51440,10 +50054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:00:10</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44275.50011574074</v>
       </c>
       <c r="I703" t="n">
         <v>1</v>
